--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-3.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,14 +489,14 @@
         <v>0.187</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>15.14449489969629</v>
+        <v>15.14449489969679</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.004</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-16.92363804869506</v>
+        <v>-16.92363804869563</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="n">
@@ -515,14 +515,14 @@
         <v>0.186</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14.97539333441201</v>
+        <v>14.97539333441252</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-16.46887483309151</v>
+        <v>-16.46887483309207</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
@@ -541,14 +541,14 @@
         <v>0.186</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>14.62949152033218</v>
+        <v>14.62949152033268</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>-0.001</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-15.89936479412349</v>
+        <v>-15.89936479412402</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="n">
@@ -567,14 +567,14 @@
         <v>0.187</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>14.15842615282484</v>
+        <v>14.15842615282532</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>-0.003</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-15.23404149126851</v>
+        <v>-15.23404149126902</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="n">
@@ -593,14 +593,14 @@
         <v>0.188</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>13.58283225367099</v>
+        <v>13.58283225367145</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>-0.004</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-14.47950539901062</v>
+        <v>-14.47950539901111</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="n">
@@ -619,14 +619,14 @@
         <v>0.19</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>12.88927675254076</v>
+        <v>12.88927675254119</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>-0.005</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-13.63291708141623</v>
+        <v>-13.63291708141669</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="n">
@@ -645,14 +645,14 @@
         <v>0.192</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>12.07303831408776</v>
+        <v>12.07303831408817</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>-0.006</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-12.68441058366014</v>
+        <v>-12.68441058366056</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="n">
@@ -671,14 +671,14 @@
         <v>0.194</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.13000599612936</v>
+        <v>11.13000599612974</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>-0.008999999999999999</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-11.63814807211864</v>
+        <v>-11.63814807211904</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="n">
@@ -697,14 +697,14 @@
         <v>0.197</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>10.05393379195299</v>
+        <v>10.05393379195332</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>-0.011</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-10.50148918042595</v>
+        <v>-10.50148918042631</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="n">
@@ -723,14 +723,14 @@
         <v>0.198</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>8.877256908041534</v>
+        <v>8.877256908041829</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>-0.013</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-9.307660950673323</v>
+        <v>-9.307660950673638</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
       <c r="H11" s="2" t="n">
@@ -749,14 +749,14 @@
         <v>0.203</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>7.638787983601368</v>
+        <v>7.638787983601632</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>-0.017</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-8.084104224592442</v>
+        <v>-8.084104224592714</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
       <c r="H12" s="2" t="n">
@@ -775,14 +775,14 @@
         <v>0.208</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>6.40157519139</v>
+        <v>6.401575191390217</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>-0.022</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-6.886483125634479</v>
+        <v>-6.886483125634708</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="n">
@@ -801,14 +801,14 @@
         <v>0.214</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>5.223331600115932</v>
+        <v>5.22333160011611</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>-0.028</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-5.758050139808791</v>
+        <v>-5.758050139808983</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="n">
@@ -827,14 +827,14 @@
         <v>0.225</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.154279595154527</v>
+        <v>4.154279595154667</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>-0.035</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-4.724582715886918</v>
+        <v>-4.724582715887077</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
       <c r="H15" s="2" t="n">
@@ -853,14 +853,14 @@
         <v>0.239</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3.236671086681967</v>
+        <v>3.236671086682075</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>-0.043</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-3.811268820765722</v>
+        <v>-3.811268820765853</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="n">
@@ -879,14 +879,14 @@
         <v>0.259</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2.516523778783253</v>
+        <v>2.516523778783337</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>-0.055</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-3.055869283229883</v>
+        <v>-3.055869283229985</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="n">
@@ -905,14 +905,14 @@
         <v>0.287</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>2.002194892354654</v>
+        <v>2.002194892354719</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>-0.06900000000000001</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-2.43908629117418</v>
+        <v>-2.439086291174264</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="n">
@@ -931,14 +931,14 @@
         <v>0.316</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1.658741346185179</v>
+        <v>1.658741346185234</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>-0.08599999999999999</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1.960363145034499</v>
+        <v>-1.960363145034564</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="n">
@@ -957,14 +957,14 @@
         <v>0.347</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1.447857829429321</v>
+        <v>1.44785782942937</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>-0.113</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1.61463134166714</v>
+        <v>-1.614631341667194</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="n">
@@ -983,14 +983,14 @@
         <v>0.374</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1.321390400148298</v>
+        <v>1.321390400148341</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>-0.148</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.368314040677208</v>
+        <v>-1.368314040677253</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="n">
@@ -1009,7 +1009,7 @@
         <v>0.402</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1.260245878257651</v>
+        <v>1.260245878257693</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
@@ -1023,7 +1023,7 @@
         <v>-0.195</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-1.212576119810084</v>
+        <v>-1.212576119810124</v>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
     </row>
@@ -1035,7 +1035,7 @@
         <v>0.432</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1.259726549701273</v>
+        <v>1.259726549701316</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
@@ -1061,7 +1061,7 @@
         <v>0.46</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1.298215303690485</v>
+        <v>1.298215303690419</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
@@ -1087,7 +1087,7 @@
         <v>0.485</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1.325146236456476</v>
+        <v>1.325146236456414</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-3.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-FeHCF-3.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,10 @@
     <col width="32" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="32" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="32" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="32" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -449,23 +453,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 2 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 2 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -480,214 +484,348 @@
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 2 Potential (V)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 2 Current (uAmps)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 3 Potential (V)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Reduction Peak 3 Current (uAmps)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.187</v>
+        <v>0.186</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>15.14449489969679</v>
+        <v>15.1947325682954</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.004</v>
+        <v/>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-16.92363804869563</v>
+        <v/>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="n">
-        <v/>
+        <v>0.004</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v/>
+        <v>16.92668602977695</v>
       </c>
       <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14.97539333441252</v>
+        <v>15.02353308606992</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-16.46887483309207</v>
+        <v/>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v/>
+        <v>16.47738765409504</v>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>14.62949152033268</v>
+        <v>14.77639310530823</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
-        <v>-0.001</v>
+        <v/>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-15.89936479412402</v>
+        <v/>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v/>
+        <v>15.90879517520665</v>
       </c>
       <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>14.15842615282532</v>
+        <v>14.2870561331569</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>-0.003</v>
+        <v/>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-15.23404149126902</v>
+        <v/>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="n">
-        <v/>
+        <v>-0.002</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v/>
+        <v>15.3021264263443</v>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>13.58283225367145</v>
+        <v>13.5837414290803</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
-        <v>-0.004</v>
+        <v/>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-14.47950539901111</v>
+        <v/>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="n">
-        <v/>
+        <v>-0.003</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v/>
+        <v>14.52088616727663</v>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>12.88927675254119</v>
+        <v>12.94925213252739</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
-        <v>-0.005</v>
+        <v/>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-13.63291708141669</v>
+        <v/>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v/>
+        <v>-0.005</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v/>
+        <v>13.65525041642329</v>
       </c>
       <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>12.07303831408817</v>
+        <v>12.09942812889971</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v>-0.006</v>
+        <v/>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-12.68441058366056</v>
+        <v/>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v/>
+        <v>-0.005</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v/>
+        <v>12.73509985255269</v>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.194</v>
+        <v>0.193</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.13000599612974</v>
+        <v>11.15943847803887</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v>-0.008999999999999999</v>
+        <v/>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-11.63814807211904</v>
+        <v/>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v/>
+        <v>-0.007</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v/>
+        <v>11.69164375908941</v>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -697,49 +835,77 @@
         <v>0.197</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>10.05393379195332</v>
+        <v>10.13216982551724</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>-0.011</v>
+        <v/>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-10.50148918042631</v>
+        <v/>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="n">
-        <v/>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v/>
+        <v>10.55978099390607</v>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>8.877256908041829</v>
+        <v>8.982251641930556</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
-        <v>-0.013</v>
+        <v/>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-9.307660950673638</v>
+        <v/>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
       <c r="H11" s="2" t="n">
-        <v/>
+        <v>-0.013</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v/>
+        <v>9.375224163345116</v>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -749,101 +915,157 @@
         <v>0.203</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>7.638787983601632</v>
+        <v>7.721893251907782</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>-0.017</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-8.084104224592714</v>
+        <v/>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
       <c r="H12" s="2" t="n">
-        <v/>
+        <v>-0.015</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v/>
+        <v>8.155052322299507</v>
       </c>
       <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.208</v>
+        <v>0.207</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>6.401575191390217</v>
+        <v>6.497285429024505</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
-        <v>-0.022</v>
+        <v/>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-6.886483125634708</v>
+        <v/>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="n">
-        <v/>
+        <v>-0.023</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v/>
+        <v>6.965138614839853</v>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.214</v>
+        <v>0.213</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>5.22333160011611</v>
+        <v>5.247032745435614</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>-0.028</v>
+        <v/>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-5.758050139808983</v>
+        <v/>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="n">
-        <v/>
+        <v>-0.027</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v/>
+        <v>5.83569782935311</v>
       </c>
       <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.225</v>
+        <v>0.224</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4.154279595154667</v>
+        <v>4.237772304762581</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
-        <v>-0.035</v>
+        <v/>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-4.724582715887077</v>
+        <v/>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
       <c r="H15" s="2" t="n">
-        <v/>
+        <v>-0.038</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v/>
+        <v>4.822315341383779</v>
       </c>
       <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -853,101 +1075,157 @@
         <v>0.239</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3.236671086682075</v>
+        <v>3.35289039128618</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
-        <v>-0.043</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-3.811268820765853</v>
+        <v/>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" s="2" t="n">
-        <v/>
+        <v>-0.044</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v/>
+        <v>3.89407648530405</v>
       </c>
       <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.259</v>
+        <v>0.26</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>2.516523778783337</v>
+        <v>2.608304087944183</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>-0.055</v>
+        <v/>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-3.055869283229985</v>
+        <v/>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="n">
-        <v/>
+        <v>-0.049</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v/>
+        <v>3.129484710515523</v>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.287</v>
+        <v>0.288</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>2.002194892354719</v>
+        <v>2.097510360783825</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>-0.06900000000000001</v>
+        <v/>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-2.439086291174264</v>
+        <v/>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="n">
-        <v/>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v/>
+        <v>2.538230959813172</v>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.316</v>
+        <v>0.319</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1.658741346185234</v>
+        <v>1.70926101437208</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
-        <v>-0.08599999999999999</v>
+        <v/>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1.960363145034564</v>
+        <v/>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="n">
-        <v/>
+        <v>-0.099</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v/>
+        <v>2.028855868485701</v>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -957,59 +1235,87 @@
         <v>0.347</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1.44785782942937</v>
+        <v>1.495570600575139</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>-0.113</v>
+        <v/>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1.614631341667194</v>
+        <v/>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="n">
-        <v/>
+        <v>-0.105</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v/>
+        <v>1.682374139655759</v>
       </c>
       <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1.321390400148341</v>
+        <v>1.355523057071375</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>-0.148</v>
+        <v/>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1.368314040677253</v>
+        <v/>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="n">
-        <v/>
+        <v>-0.154</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v/>
+        <v>1.440394559768744</v>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.402</v>
+        <v>0.408</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1.260245878257693</v>
+        <v>1.304994681796371</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
@@ -1020,29 +1326,43 @@
       </c>
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="n">
-        <v>-0.195</v>
+        <v/>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-1.212576119810124</v>
+        <v/>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="n">
+        <v>-0.197</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>1.270040060040052</v>
+      </c>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.432</v>
+        <v>0.436</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1.259726549701316</v>
+        <v>1.331496073089334</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v/>
+        <v>0.107</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v/>
+        <v>0.1361504414059607</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="n">
@@ -1052,23 +1372,37 @@
         <v/>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1.298215303690419</v>
+        <v>1.312251749884778</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v/>
+        <v>0.106</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v/>
+        <v>0.09474136768597974</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="n">
@@ -1078,23 +1412,37 @@
         <v/>
       </c>
       <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.485</v>
+        <v>0.488</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1.325146236456414</v>
+        <v>1.403953475472676</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v/>
+        <v>0.105</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v/>
+        <v>0.09221017707149159</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="n">
@@ -1104,6 +1452,20 @@
         <v/>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1117,10 +1479,10 @@
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v/>
+        <v>0.105</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v/>
+        <v>0.06901983160525971</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="n">
@@ -1130,6 +1492,20 @@
         <v/>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1143,10 +1519,10 @@
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v/>
+        <v>0.104</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v/>
+        <v>0.06959032933507225</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="n">
@@ -1156,6 +1532,20 @@
         <v/>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1169,10 +1559,10 @@
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v/>
+        <v>0.103</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v/>
+        <v>0.06044086846423702</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" s="2" t="n">
@@ -1182,6 +1572,20 @@
         <v/>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1195,10 +1599,10 @@
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v/>
+        <v>0.103</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v/>
+        <v>0.05520422259511376</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" s="2" t="n">
@@ -1208,6 +1612,20 @@
         <v/>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1221,10 +1639,10 @@
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v/>
+        <v>0.103</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v/>
+        <v>0.0536519391254125</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
       <c r="H30" s="2" t="n">
@@ -1234,6 +1652,20 @@
         <v/>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1247,10 +1679,10 @@
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v/>
+        <v>0.104</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v/>
+        <v>0.05665308567326149</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="n">
@@ -1260,6 +1692,20 @@
         <v/>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1273,10 +1719,10 @@
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v/>
+        <v>0.103</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v/>
+        <v>0.05798160843394851</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="n">
@@ -1286,6 +1732,20 @@
         <v/>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1299,10 +1759,10 @@
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v/>
+        <v>0.103</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v/>
+        <v>0.05689243451704118</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" s="2" t="n">
@@ -1312,6 +1772,20 @@
         <v/>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1325,19 +1799,33 @@
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v/>
+        <v>0.05182713938845862</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="n">
-        <v/>
+        <v>-0.106</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v/>
+        <v>0.3388711639481027</v>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1351,19 +1839,33 @@
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v/>
+        <v>0.05025911094895241</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="n">
-        <v/>
+        <v>-0.092</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v/>
+        <v>0.2996666441364813</v>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1377,10 +1879,10 @@
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v/>
+        <v>0.04794599721059817</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="n">
@@ -1390,6 +1892,20 @@
         <v/>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1403,10 +1919,10 @@
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v/>
+        <v>0.05098869792498451</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="n">
@@ -1416,6 +1932,20 @@
         <v/>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1429,10 +1959,10 @@
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v/>
+        <v>0.04737249178039676</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
       <c r="H38" s="2" t="n">
@@ -1442,6 +1972,20 @@
         <v/>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1455,10 +1999,10 @@
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v/>
+        <v>0.0475590256079555</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="n">
@@ -1468,6 +2012,20 @@
         <v/>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1481,10 +2039,10 @@
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v/>
+        <v>0.04757255688680062</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="n">
@@ -1494,6 +2052,20 @@
         <v/>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1507,10 +2079,10 @@
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v/>
+        <v>0.0462538469689649</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="n">
@@ -1520,6 +2092,20 @@
         <v/>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1533,10 +2119,10 @@
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v/>
+        <v>0.04754358348777774</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="n">
@@ -1546,6 +2132,20 @@
         <v/>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="n">
+        <v>-0.039</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>0.1243626994068093</v>
+      </c>
+      <c r="P42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1559,10 +2159,10 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v/>
+        <v>0.04836202228861083</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="n">
@@ -1572,6 +2172,20 @@
         <v/>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1585,10 +2199,10 @@
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v/>
+        <v>0.04806343868003993</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="n">
@@ -1598,6 +2212,20 @@
         <v/>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1611,10 +2239,10 @@
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v/>
+        <v>0.04524437036749174</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="n">
@@ -1624,6 +2252,20 @@
         <v/>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1637,10 +2279,10 @@
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v/>
+        <v>0.102</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v/>
+        <v>0.04809744208968095</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="n">
@@ -1650,6 +2292,20 @@
         <v/>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1663,10 +2319,10 @@
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v/>
+        <v>0.0474383074260947</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="n">
@@ -1676,6 +2332,20 @@
         <v/>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1689,10 +2359,10 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v/>
+        <v>0.1</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v/>
+        <v>0.04761964713750116</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="n">
@@ -1702,6 +2372,20 @@
         <v/>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1715,10 +2399,10 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v/>
+        <v>0.101</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v/>
+        <v>0.04760750817600268</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="n">
@@ -1728,6 +2412,20 @@
         <v/>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v/>
+      </c>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0.09373863450339465</v>
+      </c>
+      <c r="P49" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
